--- a/data/trans_dic/P2A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2A_R-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.5284189498288744</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.4356900776202684</v>
+        <v>0.4356900776202683</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.6291074234604016</v>
@@ -685,7 +685,7 @@
         <v>0.6559129218886792</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.491945716383423</v>
+        <v>0.4919457163834232</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.5571053292910899</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4481213151271117</v>
+        <v>0.4452937770418353</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5625245931799497</v>
+        <v>0.5672993066331523</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4869947324249466</v>
+        <v>0.4915312933280391</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3982716358192754</v>
+        <v>0.3947455474967618</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.5894395877425426</v>
+        <v>0.5921811854487443</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6547578231269302</v>
+        <v>0.6555440111040887</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.6163649148257807</v>
+        <v>0.6203872607584112</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4594942956772627</v>
+        <v>0.4637439197358303</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.5294072966521953</v>
+        <v>0.5328905675143937</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.6214545128561068</v>
+        <v>0.6205343659515762</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.5658190281722668</v>
+        <v>0.5647087268261521</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4397460100059175</v>
+        <v>0.4390267537068504</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5223944403566919</v>
+        <v>0.5229021658745406</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6423440836166759</v>
+        <v>0.6418117137944702</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5659545797214377</v>
+        <v>0.5658347495464634</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4775525237504941</v>
+        <v>0.4731084464334631</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6639138230615235</v>
+        <v>0.6649577083180044</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7253755151540398</v>
+        <v>0.7261663739107899</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6897086350827337</v>
+        <v>0.693892184948289</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5228644942874677</v>
+        <v>0.5242876231945596</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5830950520983886</v>
+        <v>0.5836553841542131</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6727509756542471</v>
+        <v>0.6716714853190892</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.6206747803292898</v>
+        <v>0.619782918663808</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4897898994489855</v>
+        <v>0.4901212103269789</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.5168204692922624</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.4009075577355761</v>
+        <v>0.400907557735576</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.6522541139780338</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4515062883604178</v>
+        <v>0.452530520973174</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5118326647017789</v>
+        <v>0.5098817618008856</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4857142812131297</v>
+        <v>0.4830677391171501</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3682662305204129</v>
+        <v>0.3691651257816356</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6183174612379214</v>
+        <v>0.621468525132219</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6830524663682583</v>
+        <v>0.6821261551584842</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.6251363611857309</v>
+        <v>0.6258357806615946</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4624358256478335</v>
+        <v>0.4618777946783781</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5470819514675909</v>
+        <v>0.5459163407902927</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.6068545108121494</v>
+        <v>0.6052150676157171</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.5638385116833113</v>
+        <v>0.5646011845702592</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.4248347527244428</v>
+        <v>0.4228151690212622</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.51946254458215</v>
+        <v>0.5209987508472983</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5728262581701503</v>
+        <v>0.575429209746103</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5509094771331465</v>
+        <v>0.54689896845756</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4360160116669206</v>
+        <v>0.436423296803514</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6851457235704128</v>
+        <v>0.6840293694054171</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7422141895454094</v>
+        <v>0.7380757743806095</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6851070031461146</v>
+        <v>0.6885167945733714</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5161477725604217</v>
+        <v>0.5169519825460849</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5942715180267581</v>
+        <v>0.5912544171885857</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6499374345723355</v>
+        <v>0.6500602564180034</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.6090339634592945</v>
+        <v>0.6100409547806123</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.467167387567535</v>
+        <v>0.4663798516493797</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.453143221036605</v>
+        <v>0.4508296209701582</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4632813130362968</v>
+        <v>0.4632601117831162</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4477158063767525</v>
+        <v>0.4492614134129941</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3566677333558606</v>
+        <v>0.3577579422944132</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5972371314622289</v>
+        <v>0.5986724957848065</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6412297664708538</v>
+        <v>0.639808424865135</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5666879502477695</v>
+        <v>0.5602878656804196</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3965413985453944</v>
+        <v>0.3965213571633005</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.5384341565132911</v>
+        <v>0.5355128604370258</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.5621802091427331</v>
+        <v>0.5650353505876273</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.5139905150290387</v>
+        <v>0.516280874974485</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3867852941404265</v>
+        <v>0.386903407800155</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5303866443449288</v>
+        <v>0.531344943248652</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.544253873741551</v>
+        <v>0.536954406245268</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5195601674730321</v>
+        <v>0.5208419875400154</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4355415199458955</v>
+        <v>0.4393507459629139</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6737176813286859</v>
+        <v>0.6733419017375605</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7116174387492533</v>
+        <v>0.7120852125151544</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6354299517978507</v>
+        <v>0.635717490904071</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4606682873067892</v>
+        <v>0.4600593782840514</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.59083100910127</v>
+        <v>0.5908185241872385</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6157805418782487</v>
+        <v>0.6156690625620481</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.56697564364671</v>
+        <v>0.5689378093744607</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4381447316009471</v>
+        <v>0.4366594635971069</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.5531752150924248</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3619840385863385</v>
+        <v>0.3619840385863386</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.6324757582963295</v>
@@ -1093,7 +1093,7 @@
         <v>0.6347716090348648</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.4438251526103567</v>
+        <v>0.4438251526103566</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.55257523982955</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4309007362148611</v>
+        <v>0.4324500283009815</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5432335836962081</v>
+        <v>0.5438383651837139</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5229536462308846</v>
+        <v>0.5217768814941707</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3313709117046111</v>
+        <v>0.3292392879249163</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6034259708310039</v>
+        <v>0.5992021607174214</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6556683834638826</v>
+        <v>0.6540743612826413</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.6035271340660909</v>
+        <v>0.6058385238395798</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4177272703198168</v>
+        <v>0.4180145672033626</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.5310210058212677</v>
+        <v>0.5313439731883637</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.6121781257840989</v>
+        <v>0.61600349602728</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.5731034043217001</v>
+        <v>0.5742476154754507</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3846019374317755</v>
+        <v>0.3855973588912897</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4974286593674018</v>
+        <v>0.4948336257792361</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6111598507993323</v>
+        <v>0.6099168257949086</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5857425018940384</v>
+        <v>0.5901179615451351</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3950223311618239</v>
+        <v>0.3962210499590872</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6636230832272112</v>
+        <v>0.6589349265138447</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.712309740754352</v>
+        <v>0.7108623622326424</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6626511300283048</v>
+        <v>0.6655268777347295</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4707366913233113</v>
+        <v>0.4722598706925556</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5750486921780164</v>
+        <v>0.5751504314383831</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6553002881228613</v>
+        <v>0.6575026258106058</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.6157018807841136</v>
+        <v>0.6178922467639747</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4261544447823804</v>
+        <v>0.425553992867076</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.5810683081933377</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.430109066940141</v>
+        <v>0.4301090669401409</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4628732124690057</v>
+        <v>0.4649392775666743</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5387482455819056</v>
+        <v>0.5369566434017515</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5044779181213911</v>
+        <v>0.5050323128073535</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3764715311119881</v>
+        <v>0.3772969754943422</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.6201545164417686</v>
+        <v>0.6227361707410726</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6767117199727849</v>
+        <v>0.6761099179606505</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.620742961573084</v>
+        <v>0.6216215261893834</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4485774039721955</v>
+        <v>0.4472022786515296</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.5484772876512933</v>
+        <v>0.5499117436912321</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.6135811387074114</v>
+        <v>0.6125523972633186</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.5685646454208154</v>
+        <v>0.5688085759080134</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.4190281585896568</v>
+        <v>0.4180952934597718</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4980636854765476</v>
+        <v>0.5010263420372424</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5723839599355716</v>
+        <v>0.5737535164392629</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5392396948650187</v>
+        <v>0.5403322207537392</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4135653995708038</v>
+        <v>0.4135511121450581</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6527030235810997</v>
+        <v>0.654162740395743</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7075318429644937</v>
+        <v>0.7087464418306317</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6529166966170907</v>
+        <v>0.6542580386838661</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4767751339296522</v>
+        <v>0.4769880657244705</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5731592627590186</v>
+        <v>0.5736641993934636</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.6371340935000492</v>
+        <v>0.6368616847915314</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.5925045735052676</v>
+        <v>0.5929878569635084</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4423758749349641</v>
+        <v>0.4422737715511155</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>311002</v>
+        <v>309039</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>395719</v>
+        <v>399077</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>328624</v>
+        <v>331685</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>275090</v>
+        <v>272655</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>405741</v>
+        <v>407629</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>456399</v>
+        <v>456947</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>414714</v>
+        <v>417421</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>337352</v>
+        <v>340472</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>731833</v>
+        <v>736648</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>870359</v>
+        <v>869070</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>762520</v>
+        <v>761024</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>626589</v>
+        <v>625564</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>362548</v>
+        <v>362900</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>451869</v>
+        <v>451495</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>381906</v>
+        <v>381825</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>329850</v>
+        <v>326781</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>457006</v>
+        <v>457724</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>505623</v>
+        <v>506174</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>464063</v>
+        <v>466878</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>383877</v>
+        <v>384921</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>806049</v>
+        <v>806824</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>942201</v>
+        <v>940689</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>836446</v>
+        <v>835244</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>697896</v>
+        <v>698368</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>434259</v>
+        <v>435244</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>521019</v>
+        <v>519033</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>496609</v>
+        <v>493903</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>386281</v>
+        <v>387224</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>598774</v>
+        <v>601826</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>705036</v>
+        <v>704080</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>651963</v>
+        <v>652692</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>495488</v>
+        <v>494890</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1055974</v>
+        <v>1053724</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1244131</v>
+        <v>1240770</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1164520</v>
+        <v>1166096</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>900816</v>
+        <v>896533</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>499619</v>
+        <v>501097</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>583107</v>
+        <v>585756</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>563267</v>
+        <v>559166</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>457345</v>
+        <v>457772</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>663490</v>
+        <v>662409</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>766102</v>
+        <v>761830</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>714507</v>
+        <v>718063</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>553039</v>
+        <v>553901</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1147059</v>
+        <v>1141235</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1332457</v>
+        <v>1332709</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1257865</v>
+        <v>1259944</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>990578</v>
+        <v>988908</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>307462</v>
+        <v>305892</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>350993</v>
+        <v>350977</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>340063</v>
+        <v>341237</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>286430</v>
+        <v>287306</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>408415</v>
+        <v>409397</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>498347</v>
+        <v>497242</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>444856</v>
+        <v>439832</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>322094</v>
+        <v>322078</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>733536</v>
+        <v>729556</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>862832</v>
+        <v>867215</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>793891</v>
+        <v>797428</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>624787</v>
+        <v>624977</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>359872</v>
+        <v>360522</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>412339</v>
+        <v>406809</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>394633</v>
+        <v>395607</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>349772</v>
+        <v>352831</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>460716</v>
+        <v>460459</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>553051</v>
+        <v>553414</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>498820</v>
+        <v>499045</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>374182</v>
+        <v>373687</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>804919</v>
+        <v>804902</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>945098</v>
+        <v>944927</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>875730</v>
+        <v>878760</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>707749</v>
+        <v>705350</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>406004</v>
+        <v>407464</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>514844</v>
+        <v>515417</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>490304</v>
+        <v>489201</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>328078</v>
+        <v>325967</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>626725</v>
+        <v>622339</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>689698</v>
+        <v>688021</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>629949</v>
+        <v>632362</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>467454</v>
+        <v>467775</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1051864</v>
+        <v>1052504</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1224136</v>
+        <v>1231785</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1135516</v>
+        <v>1137783</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>811165</v>
+        <v>813265</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>468688</v>
+        <v>466243</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>579220</v>
+        <v>578042</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>549173</v>
+        <v>553275</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>391097</v>
+        <v>392283</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>689247</v>
+        <v>684378</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>749279</v>
+        <v>747757</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>691661</v>
+        <v>694663</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>526774</v>
+        <v>528478</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1139076</v>
+        <v>1139278</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1310365</v>
+        <v>1314769</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1219918</v>
+        <v>1224258</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>898804</v>
+        <v>897538</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1516624</v>
+        <v>1523394</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1846171</v>
+        <v>1840032</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1712375</v>
+        <v>1714256</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1329984</v>
+        <v>1332900</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2095624</v>
+        <v>2104348</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2407949</v>
+        <v>2405808</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2200249</v>
+        <v>2203364</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1676313</v>
+        <v>1671174</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>3650523</v>
+        <v>3660070</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>4285918</v>
+        <v>4278732</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>3945209</v>
+        <v>3946901</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>3046216</v>
+        <v>3039434</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1631927</v>
+        <v>1641634</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1961433</v>
+        <v>1966127</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1830368</v>
+        <v>1834077</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1461028</v>
+        <v>1460978</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>2205612</v>
+        <v>2210545</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>2517617</v>
+        <v>2521939</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>2314291</v>
+        <v>2319045</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1781687</v>
+        <v>1782482</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>3814800</v>
+        <v>3818160</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>4450438</v>
+        <v>4448535</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>4111325</v>
+        <v>4114679</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>3215947</v>
+        <v>3215205</v>
       </c>
     </row>
     <row r="24">
